--- a/eBirdDataProcessor/CumberlandFrequencyData.xlsx
+++ b/eBirdDataProcessor/CumberlandFrequencyData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2179" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="323">
   <si>
     <t>January</t>
   </si>
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:X135"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="R1" s="1">
-        <v>1165</v>
+        <v>1326</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -1533,7 +1533,7 @@
         <v>28</v>
       </c>
       <c r="R3">
-        <v>60.686700000000002</v>
+        <v>61.990949999999998</v>
       </c>
       <c r="S3" t="s">
         <v>28</v>
@@ -1607,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="R4">
-        <v>59.055790000000002</v>
+        <v>57.918550000000003</v>
       </c>
       <c r="S4" t="s">
         <v>14</v>
@@ -1678,10 +1678,10 @@
         <v>48.18038</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R5">
-        <v>53.304720000000003</v>
+        <v>53.242840000000001</v>
       </c>
       <c r="S5" t="s">
         <v>21</v>
@@ -1752,10 +1752,10 @@
         <v>42.563290000000002</v>
       </c>
       <c r="Q6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R6">
-        <v>52.789700000000003</v>
+        <v>52.865760000000002</v>
       </c>
       <c r="S6" t="s">
         <v>16</v>
@@ -1829,7 +1829,7 @@
         <v>16</v>
       </c>
       <c r="R7">
-        <v>49.012869999999999</v>
+        <v>49.170439999999999</v>
       </c>
       <c r="S7" t="s">
         <v>19</v>
@@ -1903,7 +1903,7 @@
         <v>21</v>
       </c>
       <c r="R8">
-        <v>44.635190000000001</v>
+        <v>44.494720000000001</v>
       </c>
       <c r="S8" t="s">
         <v>20</v>
@@ -1974,10 +1974,10 @@
         <v>36.946199999999997</v>
       </c>
       <c r="Q9" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="R9">
-        <v>40.600859999999997</v>
+        <v>42.232280000000003</v>
       </c>
       <c r="S9" t="s">
         <v>18</v>
@@ -2048,10 +2048,10 @@
         <v>35.996830000000003</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="R10">
-        <v>40.51502</v>
+        <v>41.628959999999999</v>
       </c>
       <c r="S10" t="s">
         <v>24</v>
@@ -2122,10 +2122,10 @@
         <v>34.177219999999998</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R11">
-        <v>37.08155</v>
+        <v>36.50076</v>
       </c>
       <c r="S11" t="s">
         <v>23</v>
@@ -2196,10 +2196,10 @@
         <v>33.702530000000003</v>
       </c>
       <c r="Q12" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="R12">
-        <v>36.738199999999999</v>
+        <v>36.349930000000001</v>
       </c>
       <c r="S12" t="s">
         <v>27</v>
@@ -2270,10 +2270,10 @@
         <v>30.854430000000001</v>
       </c>
       <c r="Q13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R13">
-        <v>36.309010000000001</v>
+        <v>36.199100000000001</v>
       </c>
       <c r="S13" t="s">
         <v>26</v>
@@ -2344,10 +2344,10 @@
         <v>29.50949</v>
       </c>
       <c r="Q14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="R14">
-        <v>35.622320000000002</v>
+        <v>36.199100000000001</v>
       </c>
       <c r="S14" t="s">
         <v>50</v>
@@ -2418,10 +2418,10 @@
         <v>28.006329999999998</v>
       </c>
       <c r="Q15" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R15">
-        <v>34.849780000000003</v>
+        <v>35.671190000000003</v>
       </c>
       <c r="S15" t="s">
         <v>30</v>
@@ -2492,10 +2492,10 @@
         <v>27.610759999999999</v>
       </c>
       <c r="Q16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="R16">
-        <v>33.218879999999999</v>
+        <v>34.917050000000003</v>
       </c>
       <c r="S16" t="s">
         <v>31</v>
@@ -2566,10 +2566,10 @@
         <v>27.2943</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="R17">
-        <v>32.618029999999997</v>
+        <v>34.615380000000002</v>
       </c>
       <c r="S17" t="s">
         <v>29</v>
@@ -2640,10 +2640,10 @@
         <v>25.949369999999998</v>
       </c>
       <c r="Q18" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="R18">
-        <v>28.669530000000002</v>
+        <v>28.808450000000001</v>
       </c>
       <c r="S18" t="s">
         <v>17</v>
@@ -2714,10 +2714,10 @@
         <v>25.632909999999999</v>
       </c>
       <c r="Q19" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="R19">
-        <v>26.523610000000001</v>
+        <v>28.431370000000001</v>
       </c>
       <c r="S19" t="s">
         <v>22</v>
@@ -2791,7 +2791,7 @@
         <v>39</v>
       </c>
       <c r="R20">
-        <v>23.433479999999999</v>
+        <v>23.83107</v>
       </c>
       <c r="S20" t="s">
         <v>32</v>
@@ -2865,7 +2865,7 @@
         <v>38</v>
       </c>
       <c r="R21">
-        <v>21.459230000000002</v>
+        <v>21.945699999999999</v>
       </c>
       <c r="S21" t="s">
         <v>25</v>
@@ -2936,10 +2936,10 @@
         <v>23.496839999999999</v>
       </c>
       <c r="Q22" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="R22">
-        <v>21.373390000000001</v>
+        <v>21.568629999999999</v>
       </c>
       <c r="S22" t="s">
         <v>40</v>
@@ -3010,10 +3010,10 @@
         <v>21.835439999999998</v>
       </c>
       <c r="Q23" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="R23">
-        <v>20.77253</v>
+        <v>20.43741</v>
       </c>
       <c r="S23" t="s">
         <v>39</v>
@@ -3084,10 +3084,10 @@
         <v>19.303799999999999</v>
       </c>
       <c r="Q24" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="R24">
-        <v>20</v>
+        <v>20.21116</v>
       </c>
       <c r="S24" t="s">
         <v>33</v>
@@ -3158,10 +3158,10 @@
         <v>17.405059999999999</v>
       </c>
       <c r="Q25" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="R25">
-        <v>19.914159999999999</v>
+        <v>19.83409</v>
       </c>
       <c r="S25" t="s">
         <v>38</v>
@@ -3232,10 +3232,10 @@
         <v>17.00949</v>
       </c>
       <c r="Q26" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="R26">
-        <v>18.626609999999999</v>
+        <v>19.83409</v>
       </c>
       <c r="S26" t="s">
         <v>60</v>
@@ -3306,10 +3306,10 @@
         <v>16.85126</v>
       </c>
       <c r="Q27" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="R27">
-        <v>17.253219999999999</v>
+        <v>18.02413</v>
       </c>
       <c r="S27" t="s">
         <v>15</v>
@@ -3380,10 +3380,10 @@
         <v>16.77215</v>
       </c>
       <c r="Q28" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="R28">
-        <v>17.167380000000001</v>
+        <v>17.64706</v>
       </c>
       <c r="S28" t="s">
         <v>74</v>
@@ -3454,10 +3454,10 @@
         <v>16.61392</v>
       </c>
       <c r="Q29" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="R29">
-        <v>16.82403</v>
+        <v>17.04374</v>
       </c>
       <c r="S29" t="s">
         <v>35</v>
@@ -3528,10 +3528,10 @@
         <v>16.139240000000001</v>
       </c>
       <c r="Q30" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="R30">
-        <v>16.137339999999998</v>
+        <v>16.742080000000001</v>
       </c>
       <c r="S30" t="s">
         <v>61</v>
@@ -3602,10 +3602,10 @@
         <v>15.74367</v>
       </c>
       <c r="Q31" t="s">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="R31">
-        <v>15.87983</v>
+        <v>16.44042</v>
       </c>
       <c r="S31" t="s">
         <v>41</v>
@@ -3679,7 +3679,7 @@
         <v>204</v>
       </c>
       <c r="R32">
-        <v>15.45064</v>
+        <v>16.28959</v>
       </c>
       <c r="S32" t="s">
         <v>129</v>
@@ -3753,7 +3753,7 @@
         <v>41</v>
       </c>
       <c r="R33">
-        <v>14.4206</v>
+        <v>15.610860000000001</v>
       </c>
       <c r="S33" t="s">
         <v>34</v>
@@ -3827,7 +3827,7 @@
         <v>33</v>
       </c>
       <c r="R34">
-        <v>13.648070000000001</v>
+        <v>14.705880000000001</v>
       </c>
       <c r="S34" t="s">
         <v>101</v>
@@ -3901,7 +3901,7 @@
         <v>63</v>
       </c>
       <c r="R35">
-        <v>13.04721</v>
+        <v>14.328810000000001</v>
       </c>
       <c r="S35" t="s">
         <v>118</v>
@@ -3975,7 +3975,7 @@
         <v>155</v>
       </c>
       <c r="R36">
-        <v>12.961370000000001</v>
+        <v>13.348420000000001</v>
       </c>
       <c r="S36" t="s">
         <v>102</v>
@@ -4046,10 +4046,10 @@
         <v>11.867089999999999</v>
       </c>
       <c r="Q37" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="R37">
-        <v>12.961370000000001</v>
+        <v>13.122170000000001</v>
       </c>
       <c r="S37" t="s">
         <v>44</v>
@@ -4123,7 +4123,7 @@
         <v>129</v>
       </c>
       <c r="R38">
-        <v>12.7897</v>
+        <v>13.122170000000001</v>
       </c>
       <c r="S38" t="s">
         <v>46</v>
@@ -4194,10 +4194,10 @@
         <v>10.60127</v>
       </c>
       <c r="Q39" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="R39">
-        <v>12.703860000000001</v>
+        <v>12.29261</v>
       </c>
       <c r="S39" t="s">
         <v>79</v>
@@ -4268,10 +4268,10 @@
         <v>10.28481</v>
       </c>
       <c r="Q40" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="R40">
-        <v>12.446350000000001</v>
+        <v>12.29261</v>
       </c>
       <c r="S40" t="s">
         <v>37</v>
@@ -4342,10 +4342,10 @@
         <v>10.2057</v>
       </c>
       <c r="Q41" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="R41">
-        <v>12.446350000000001</v>
+        <v>12.066369999999999</v>
       </c>
       <c r="S41" t="s">
         <v>108</v>
@@ -4419,7 +4419,7 @@
         <v>34</v>
       </c>
       <c r="R42">
-        <v>11.50215</v>
+        <v>12.066369999999999</v>
       </c>
       <c r="S42" t="s">
         <v>67</v>
@@ -4493,7 +4493,7 @@
         <v>35</v>
       </c>
       <c r="R43">
-        <v>11.416309999999999</v>
+        <v>11.99095</v>
       </c>
       <c r="S43" t="s">
         <v>55</v>
@@ -4564,10 +4564,10 @@
         <v>9.7310099999999995</v>
       </c>
       <c r="Q44" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="R44">
-        <v>11.416309999999999</v>
+        <v>11.68929</v>
       </c>
       <c r="S44" t="s">
         <v>107</v>
@@ -4638,10 +4638,10 @@
         <v>9.4936699999999998</v>
       </c>
       <c r="Q45" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="R45">
-        <v>11.33047</v>
+        <v>11.538460000000001</v>
       </c>
       <c r="S45" t="s">
         <v>47</v>
@@ -4712,10 +4712,10 @@
         <v>9.4936699999999998</v>
       </c>
       <c r="Q46" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="R46">
-        <v>11.158799999999999</v>
+        <v>11.463050000000001</v>
       </c>
       <c r="S46" t="s">
         <v>65</v>
@@ -4786,10 +4786,10 @@
         <v>8.8607600000000009</v>
       </c>
       <c r="Q47" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="R47">
-        <v>10.987120000000001</v>
+        <v>11.08597</v>
       </c>
       <c r="S47" t="s">
         <v>49</v>
@@ -4860,10 +4860,10 @@
         <v>8.8607600000000009</v>
       </c>
       <c r="Q48" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="R48">
-        <v>10.729609999999999</v>
+        <v>10.7089</v>
       </c>
       <c r="S48" t="s">
         <v>45</v>
@@ -4934,10 +4934,10 @@
         <v>8.7816500000000008</v>
       </c>
       <c r="Q49" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="R49">
-        <v>10.042920000000001</v>
+        <v>10.558070000000001</v>
       </c>
       <c r="S49" t="s">
         <v>184</v>
@@ -5008,10 +5008,10 @@
         <v>8.4651899999999998</v>
       </c>
       <c r="Q50" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="R50">
-        <v>10.042920000000001</v>
+        <v>10.33183</v>
       </c>
       <c r="S50" t="s">
         <v>48</v>
@@ -5082,10 +5082,10 @@
         <v>8.3860799999999998</v>
       </c>
       <c r="Q51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R51">
-        <v>9.6137300000000003</v>
+        <v>10.33183</v>
       </c>
       <c r="S51" t="s">
         <v>64</v>
@@ -5156,10 +5156,10 @@
         <v>7.9905099999999996</v>
       </c>
       <c r="Q52" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="R52">
-        <v>9.5279000000000007</v>
+        <v>9.6530900000000006</v>
       </c>
       <c r="S52" t="s">
         <v>95</v>
@@ -5233,7 +5233,7 @@
         <v>224</v>
       </c>
       <c r="R53">
-        <v>8.4978499999999997</v>
+        <v>9.2760200000000008</v>
       </c>
       <c r="S53" t="s">
         <v>130</v>
@@ -5307,7 +5307,7 @@
         <v>227</v>
       </c>
       <c r="R54">
-        <v>8.4120200000000001</v>
+        <v>8.7481100000000005</v>
       </c>
       <c r="S54" t="s">
         <v>54</v>
@@ -5378,10 +5378,10 @@
         <v>6.8037999999999998</v>
       </c>
       <c r="Q55" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="R55">
-        <v>8.2403399999999998</v>
+        <v>8.0693800000000007</v>
       </c>
       <c r="S55" t="s">
         <v>63</v>
@@ -5452,10 +5452,10 @@
         <v>6.7246800000000002</v>
       </c>
       <c r="Q56" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="R56">
-        <v>7.8970000000000002</v>
+        <v>8.0693800000000007</v>
       </c>
       <c r="S56" t="s">
         <v>87</v>
@@ -5526,10 +5526,10 @@
         <v>6.6455700000000002</v>
       </c>
       <c r="Q57" t="s">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="R57">
-        <v>7.8111600000000001</v>
+        <v>7.7677199999999997</v>
       </c>
       <c r="S57" t="s">
         <v>175</v>
@@ -5600,10 +5600,10 @@
         <v>6.6455700000000002</v>
       </c>
       <c r="Q58" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="R58">
-        <v>7.5536500000000002</v>
+        <v>7.2398199999999999</v>
       </c>
       <c r="S58" t="s">
         <v>204</v>
@@ -5674,10 +5674,10 @@
         <v>6.17089</v>
       </c>
       <c r="Q59" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="R59">
-        <v>7.0386300000000004</v>
+        <v>6.9381599999999999</v>
       </c>
       <c r="S59" t="s">
         <v>96</v>
@@ -5748,10 +5748,10 @@
         <v>6.0917700000000004</v>
       </c>
       <c r="Q60" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="R60">
-        <v>6.9527900000000002</v>
+        <v>6.7119200000000001</v>
       </c>
       <c r="S60" t="s">
         <v>82</v>
@@ -5822,10 +5822,10 @@
         <v>5.6170900000000001</v>
       </c>
       <c r="Q61" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="R61">
-        <v>6.8669500000000001</v>
+        <v>6.5610900000000001</v>
       </c>
       <c r="S61" t="s">
         <v>71</v>
@@ -5896,10 +5896,10 @@
         <v>5.1424099999999999</v>
       </c>
       <c r="Q62" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="R62">
-        <v>6.8669500000000001</v>
+        <v>6.4856699999999998</v>
       </c>
       <c r="S62" t="s">
         <v>53</v>
@@ -5970,10 +5970,10 @@
         <v>4.9841800000000003</v>
       </c>
       <c r="Q63" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="R63">
-        <v>6.2660900000000002</v>
+        <v>6.4856699999999998</v>
       </c>
       <c r="S63" t="s">
         <v>132</v>
@@ -6044,10 +6044,10 @@
         <v>4.8259499999999997</v>
       </c>
       <c r="Q64" t="s">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="R64">
-        <v>6.1802599999999996</v>
+        <v>6.4102600000000001</v>
       </c>
       <c r="S64" t="s">
         <v>214</v>
@@ -6118,10 +6118,10 @@
         <v>4.7468399999999997</v>
       </c>
       <c r="Q65" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="R65">
-        <v>6.0085800000000003</v>
+        <v>6.4102600000000001</v>
       </c>
       <c r="S65" t="s">
         <v>56</v>
@@ -6192,10 +6192,10 @@
         <v>4.5886100000000001</v>
       </c>
       <c r="Q66" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="R66">
-        <v>5.9227499999999997</v>
+        <v>6.25943</v>
       </c>
       <c r="S66" t="s">
         <v>264</v>
@@ -6266,10 +6266,10 @@
         <v>4.1139200000000002</v>
       </c>
       <c r="Q67" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="R67">
-        <v>5.8369099999999996</v>
+        <v>6.1086</v>
       </c>
       <c r="S67" t="s">
         <v>123</v>
@@ -6340,10 +6340,10 @@
         <v>3.8765800000000001</v>
       </c>
       <c r="Q68" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="R68">
-        <v>5.6652399999999998</v>
+        <v>5.7315199999999997</v>
       </c>
       <c r="S68" t="s">
         <v>199</v>
@@ -6414,10 +6414,10 @@
         <v>3.56013</v>
       </c>
       <c r="Q69" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="R69">
-        <v>5.6652399999999998</v>
+        <v>5.65611</v>
       </c>
       <c r="S69" t="s">
         <v>70</v>
@@ -6488,10 +6488,10 @@
         <v>3.4810099999999999</v>
       </c>
       <c r="Q70" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="R70">
-        <v>5.5793999999999997</v>
+        <v>5.5806899999999997</v>
       </c>
       <c r="S70" t="s">
         <v>78</v>
@@ -6562,10 +6562,10 @@
         <v>3.4810099999999999</v>
       </c>
       <c r="Q71" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="R71">
-        <v>5.4077299999999999</v>
+        <v>5.2036199999999999</v>
       </c>
       <c r="S71" t="s">
         <v>155</v>
@@ -6636,10 +6636,10 @@
         <v>3.3227799999999998</v>
       </c>
       <c r="Q72" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
       <c r="R72">
-        <v>5.0643799999999999</v>
+        <v>5.2036199999999999</v>
       </c>
       <c r="S72" t="s">
         <v>178</v>
@@ -6710,10 +6710,10 @@
         <v>3.0854400000000002</v>
       </c>
       <c r="Q73" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="R73">
-        <v>5.0643799999999999</v>
+        <v>5.1282100000000002</v>
       </c>
       <c r="S73" t="s">
         <v>59</v>
@@ -6784,10 +6784,10 @@
         <v>3.0854400000000002</v>
       </c>
       <c r="Q74" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="R74">
-        <v>4.9785399999999997</v>
+        <v>5.0527899999999999</v>
       </c>
       <c r="S74" t="s">
         <v>259</v>
@@ -6858,10 +6858,10 @@
         <v>2.9272200000000002</v>
       </c>
       <c r="Q75" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
       <c r="R75">
-        <v>4.8926999999999996</v>
+        <v>4.9773800000000001</v>
       </c>
       <c r="S75" t="s">
         <v>42</v>
@@ -6932,10 +6932,10 @@
         <v>2.9272200000000002</v>
       </c>
       <c r="Q76" t="s">
-        <v>259</v>
+        <v>56</v>
       </c>
       <c r="R76">
-        <v>4.8926999999999996</v>
+        <v>4.9773800000000001</v>
       </c>
       <c r="S76" t="s">
         <v>36</v>
@@ -7006,10 +7006,10 @@
         <v>2.7689900000000001</v>
       </c>
       <c r="Q77" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="R77">
-        <v>4.8926999999999996</v>
+        <v>4.9773800000000001</v>
       </c>
       <c r="S77" t="s">
         <v>125</v>
@@ -7080,10 +7080,10 @@
         <v>2.68987</v>
       </c>
       <c r="Q78" t="s">
-        <v>56</v>
+        <v>207</v>
       </c>
       <c r="R78">
-        <v>4.7210299999999998</v>
+        <v>4.9019599999999999</v>
       </c>
       <c r="S78" t="s">
         <v>51</v>
@@ -7154,10 +7154,10 @@
         <v>2.61076</v>
       </c>
       <c r="Q79" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="R79">
-        <v>4.7210299999999998</v>
+        <v>4.8265500000000001</v>
       </c>
       <c r="S79" t="s">
         <v>280</v>
@@ -7228,10 +7228,10 @@
         <v>2.61076</v>
       </c>
       <c r="Q80" t="s">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="R80">
-        <v>4.5493600000000001</v>
+        <v>4.7511299999999999</v>
       </c>
       <c r="S80" t="s">
         <v>93</v>
@@ -7302,10 +7302,10 @@
         <v>2.61076</v>
       </c>
       <c r="Q81" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="R81">
-        <v>4.5493600000000001</v>
+        <v>4.7511299999999999</v>
       </c>
       <c r="S81" t="s">
         <v>68</v>
@@ -7376,10 +7376,10 @@
         <v>2.4525299999999999</v>
       </c>
       <c r="Q82" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="R82">
-        <v>4.4635199999999999</v>
+        <v>4.7511299999999999</v>
       </c>
       <c r="S82" t="s">
         <v>224</v>
@@ -7450,10 +7450,10 @@
         <v>2.4525299999999999</v>
       </c>
       <c r="Q83" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="R83">
-        <v>4.4635199999999999</v>
+        <v>4.4494699999999998</v>
       </c>
       <c r="S83" t="s">
         <v>91</v>
@@ -7524,10 +7524,10 @@
         <v>2.3734199999999999</v>
       </c>
       <c r="Q84" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="R84">
-        <v>4.20601</v>
+        <v>4.3740600000000001</v>
       </c>
       <c r="S84" t="s">
         <v>160</v>
@@ -7598,10 +7598,10 @@
         <v>2.3734199999999999</v>
       </c>
       <c r="Q85" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="R85">
-        <v>4.1201699999999999</v>
+        <v>4.3740600000000001</v>
       </c>
       <c r="S85" t="s">
         <v>57</v>
@@ -7672,10 +7672,10 @@
         <v>2.3734199999999999</v>
       </c>
       <c r="Q86" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="R86">
-        <v>4.1201699999999999</v>
+        <v>4.3740600000000001</v>
       </c>
       <c r="S86" t="s">
         <v>77</v>
@@ -7746,10 +7746,10 @@
         <v>2.2942999999999998</v>
       </c>
       <c r="Q87" t="s">
-        <v>60</v>
+        <v>258</v>
       </c>
       <c r="R87">
-        <v>4.0343299999999997</v>
+        <v>4.1478099999999998</v>
       </c>
       <c r="S87" t="s">
         <v>176</v>
@@ -7820,10 +7820,10 @@
         <v>2.2942999999999998</v>
       </c>
       <c r="Q88" t="s">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="R88">
-        <v>3.9485000000000001</v>
+        <v>3.8461500000000002</v>
       </c>
       <c r="S88" t="s">
         <v>73</v>
@@ -7894,10 +7894,10 @@
         <v>2.2151900000000002</v>
       </c>
       <c r="Q89" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="R89">
-        <v>3.9485000000000001</v>
+        <v>3.6953200000000002</v>
       </c>
       <c r="S89" t="s">
         <v>105</v>
@@ -7968,10 +7968,10 @@
         <v>2.1360800000000002</v>
       </c>
       <c r="Q90" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R90">
-        <v>3.7768199999999998</v>
+        <v>3.61991</v>
       </c>
       <c r="S90" t="s">
         <v>86</v>
@@ -8045,7 +8045,7 @@
         <v>152</v>
       </c>
       <c r="R91">
-        <v>3.6051500000000001</v>
+        <v>3.61991</v>
       </c>
       <c r="S91" t="s">
         <v>72</v>
@@ -8119,7 +8119,7 @@
         <v>105</v>
       </c>
       <c r="R92">
-        <v>3.4334799999999999</v>
+        <v>3.61991</v>
       </c>
       <c r="S92" t="s">
         <v>270</v>
@@ -8190,10 +8190,10 @@
         <v>1.9778500000000001</v>
       </c>
       <c r="Q93" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="R93">
-        <v>3.3476400000000002</v>
+        <v>3.3936700000000002</v>
       </c>
       <c r="S93" t="s">
         <v>193</v>
@@ -8264,10 +8264,10 @@
         <v>1.9778500000000001</v>
       </c>
       <c r="Q94" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="R94">
-        <v>3.3476400000000002</v>
+        <v>3.3182499999999999</v>
       </c>
       <c r="S94" t="s">
         <v>106</v>
@@ -8338,10 +8338,10 @@
         <v>1.81962</v>
       </c>
       <c r="Q95" t="s">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="R95">
-        <v>3.2618</v>
+        <v>3.3182499999999999</v>
       </c>
       <c r="S95" t="s">
         <v>225</v>
@@ -8412,10 +8412,10 @@
         <v>1.81962</v>
       </c>
       <c r="Q96" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="R96">
-        <v>3.2618</v>
+        <v>3.0920100000000001</v>
       </c>
       <c r="S96" t="s">
         <v>94</v>
@@ -8486,10 +8486,10 @@
         <v>1.81962</v>
       </c>
       <c r="Q97" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="R97">
-        <v>3.0042900000000001</v>
+        <v>2.9411800000000001</v>
       </c>
       <c r="S97" t="s">
         <v>217</v>
@@ -8560,10 +8560,10 @@
         <v>1.81962</v>
       </c>
       <c r="Q98" t="s">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="R98">
-        <v>2.91845</v>
+        <v>2.9411800000000001</v>
       </c>
       <c r="S98" t="s">
         <v>110</v>
@@ -8634,10 +8634,10 @@
         <v>1.74051</v>
       </c>
       <c r="Q99" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="R99">
-        <v>2.7467800000000002</v>
+        <v>2.6395200000000001</v>
       </c>
       <c r="S99" t="s">
         <v>208</v>
@@ -8711,7 +8711,7 @@
         <v>70</v>
       </c>
       <c r="R100">
-        <v>2.7467800000000002</v>
+        <v>2.5640999999999998</v>
       </c>
       <c r="S100" t="s">
         <v>84</v>
@@ -8782,10 +8782,10 @@
         <v>1.74051</v>
       </c>
       <c r="Q101" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="R101">
-        <v>2.6609400000000001</v>
+        <v>2.4886900000000001</v>
       </c>
       <c r="S101" t="s">
         <v>205</v>
@@ -8856,10 +8856,10 @@
         <v>1.6613899999999999</v>
       </c>
       <c r="Q102" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="R102">
-        <v>2.57511</v>
+        <v>2.4132699999999998</v>
       </c>
       <c r="S102" t="s">
         <v>62</v>
@@ -8930,10 +8930,10 @@
         <v>1.5822799999999999</v>
       </c>
       <c r="Q103" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="R103">
-        <v>2.23176</v>
+        <v>2.33786</v>
       </c>
       <c r="S103" t="s">
         <v>201</v>
@@ -9004,10 +9004,10 @@
         <v>1.5031600000000001</v>
       </c>
       <c r="Q104" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="R104">
-        <v>2.23176</v>
+        <v>2.33786</v>
       </c>
       <c r="S104" t="s">
         <v>76</v>
@@ -9078,10 +9078,10 @@
         <v>1.42405</v>
       </c>
       <c r="Q105" t="s">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="R105">
-        <v>2.23176</v>
+        <v>2.33786</v>
       </c>
       <c r="S105" t="s">
         <v>183</v>
@@ -9152,10 +9152,10 @@
         <v>1.34494</v>
       </c>
       <c r="Q106" t="s">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="R106">
-        <v>2.1459199999999998</v>
+        <v>2.2624399999999998</v>
       </c>
       <c r="S106" t="s">
         <v>250</v>
@@ -9226,10 +9226,10 @@
         <v>1.1867099999999999</v>
       </c>
       <c r="Q107" t="s">
-        <v>287</v>
+        <v>176</v>
       </c>
       <c r="R107">
-        <v>2.0600900000000002</v>
+        <v>2.2624399999999998</v>
       </c>
       <c r="S107" t="s">
         <v>97</v>
@@ -9300,10 +9300,10 @@
         <v>1.1075900000000001</v>
       </c>
       <c r="Q108" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="R108">
-        <v>1.9742500000000001</v>
+        <v>2.18703</v>
       </c>
       <c r="S108" t="s">
         <v>198</v>
@@ -9374,10 +9374,10 @@
         <v>1.1075900000000001</v>
       </c>
       <c r="Q109" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="R109">
-        <v>1.8884099999999999</v>
+        <v>2.18703</v>
       </c>
       <c r="S109" t="s">
         <v>137</v>
@@ -9448,10 +9448,10 @@
         <v>1.0284800000000001</v>
       </c>
       <c r="Q110" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="R110">
-        <v>1.8884099999999999</v>
+        <v>2.1116100000000002</v>
       </c>
       <c r="S110" t="s">
         <v>140</v>
@@ -9522,10 +9522,10 @@
         <v>1.0284800000000001</v>
       </c>
       <c r="Q111" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="R111">
-        <v>1.8025800000000001</v>
+        <v>1.96078</v>
       </c>
       <c r="S111" t="s">
         <v>263</v>
@@ -9596,10 +9596,10 @@
         <v>1.0284800000000001</v>
       </c>
       <c r="Q112" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="R112">
-        <v>1.8025800000000001</v>
+        <v>1.96078</v>
       </c>
       <c r="S112" t="s">
         <v>114</v>
@@ -9670,10 +9670,10 @@
         <v>1.0284800000000001</v>
       </c>
       <c r="Q113" t="s">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="R113">
-        <v>1.8025800000000001</v>
+        <v>1.88537</v>
       </c>
       <c r="S113" t="s">
         <v>218</v>
@@ -9744,10 +9744,10 @@
         <v>1.0284800000000001</v>
       </c>
       <c r="Q114" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="R114">
-        <v>1.7167399999999999</v>
+        <v>1.8099499999999999</v>
       </c>
       <c r="S114" t="s">
         <v>212</v>
@@ -9818,10 +9818,10 @@
         <v>0.94937000000000005</v>
       </c>
       <c r="Q115" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="R115">
-        <v>1.6309</v>
+        <v>1.8099499999999999</v>
       </c>
       <c r="S115" t="s">
         <v>157</v>
@@ -9895,7 +9895,7 @@
         <v>271</v>
       </c>
       <c r="R116">
-        <v>1.6309</v>
+        <v>1.58371</v>
       </c>
       <c r="S116" t="s">
         <v>179</v>
@@ -9966,10 +9966,10 @@
         <v>0.79113999999999995</v>
       </c>
       <c r="Q117" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="R117">
-        <v>1.5450600000000001</v>
+        <v>1.5083</v>
       </c>
       <c r="S117" t="s">
         <v>89</v>
@@ -10040,10 +10040,10 @@
         <v>0.79113999999999995</v>
       </c>
       <c r="Q118" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="R118">
-        <v>1.5450600000000001</v>
+        <v>1.4328799999999999</v>
       </c>
       <c r="S118" t="s">
         <v>177</v>
@@ -10114,10 +10114,10 @@
         <v>0.79113999999999995</v>
       </c>
       <c r="Q119" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="R119">
-        <v>1.45923</v>
+        <v>1.35747</v>
       </c>
       <c r="S119" t="s">
         <v>43</v>
@@ -10188,10 +10188,10 @@
         <v>0.71203000000000005</v>
       </c>
       <c r="Q120" t="s">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="R120">
-        <v>1.45923</v>
+        <v>1.35747</v>
       </c>
       <c r="S120" t="s">
         <v>69</v>
@@ -10262,10 +10262,10 @@
         <v>0.71203000000000005</v>
       </c>
       <c r="Q121" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="R121">
-        <v>1.3733900000000001</v>
+        <v>1.2820499999999999</v>
       </c>
       <c r="S121" t="s">
         <v>258</v>
@@ -10336,10 +10336,10 @@
         <v>0.71203000000000005</v>
       </c>
       <c r="Q122" t="s">
-        <v>93</v>
+        <v>275</v>
       </c>
       <c r="R122">
-        <v>1.3733900000000001</v>
+        <v>1.2820499999999999</v>
       </c>
       <c r="S122" t="s">
         <v>81</v>
@@ -10410,10 +10410,10 @@
         <v>0.63290999999999997</v>
       </c>
       <c r="Q123" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="R123">
-        <v>1.3733900000000001</v>
+        <v>1.2820499999999999</v>
       </c>
       <c r="S123" t="s">
         <v>100</v>
@@ -10484,10 +10484,10 @@
         <v>0.63290999999999997</v>
       </c>
       <c r="Q124" t="s">
-        <v>273</v>
+        <v>93</v>
       </c>
       <c r="R124">
-        <v>1.28755</v>
+        <v>1.2820499999999999</v>
       </c>
       <c r="S124" t="s">
         <v>211</v>
@@ -10558,10 +10558,10 @@
         <v>0.55379999999999996</v>
       </c>
       <c r="Q125" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="R125">
-        <v>1.28755</v>
+        <v>1.2066399999999999</v>
       </c>
       <c r="S125" t="s">
         <v>174</v>
@@ -10632,10 +10632,10 @@
         <v>0.55379999999999996</v>
       </c>
       <c r="Q126" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="R126">
-        <v>1.2017199999999999</v>
+        <v>1.2066399999999999</v>
       </c>
       <c r="S126" t="s">
         <v>88</v>
@@ -10706,10 +10706,10 @@
         <v>0.55379999999999996</v>
       </c>
       <c r="Q127" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="R127">
-        <v>1.2017199999999999</v>
+        <v>1.1312199999999999</v>
       </c>
       <c r="S127" t="s">
         <v>158</v>
@@ -10780,10 +10780,10 @@
         <v>0.55379999999999996</v>
       </c>
       <c r="Q128" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="R128">
-        <v>1.2017199999999999</v>
+        <v>1.0558099999999999</v>
       </c>
       <c r="S128" t="s">
         <v>58</v>
@@ -10854,10 +10854,10 @@
         <v>0.47467999999999999</v>
       </c>
       <c r="Q129" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="R129">
-        <v>1.11588</v>
+        <v>1.0558099999999999</v>
       </c>
       <c r="S129" t="s">
         <v>150</v>
@@ -10928,10 +10928,10 @@
         <v>0.47467999999999999</v>
       </c>
       <c r="Q130" t="s">
-        <v>304</v>
+        <v>220</v>
       </c>
       <c r="R130">
-        <v>1.11588</v>
+        <v>1.0558099999999999</v>
       </c>
       <c r="S130" t="s">
         <v>180</v>
@@ -11002,10 +11002,10 @@
         <v>0.47467999999999999</v>
       </c>
       <c r="Q131" t="s">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="R131">
-        <v>1.11588</v>
+        <v>0.98038999999999998</v>
       </c>
       <c r="S131" t="s">
         <v>133</v>
@@ -11076,10 +11076,10 @@
         <v>0.47467999999999999</v>
       </c>
       <c r="Q132" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="R132">
-        <v>1.11588</v>
+        <v>0.98038999999999998</v>
       </c>
       <c r="S132" t="s">
         <v>241</v>
@@ -11150,10 +11150,10 @@
         <v>0.39556999999999998</v>
       </c>
       <c r="Q133" t="s">
-        <v>265</v>
+        <v>67</v>
       </c>
       <c r="R133">
-        <v>1.11588</v>
+        <v>0.98038999999999998</v>
       </c>
       <c r="S133" t="s">
         <v>276</v>
@@ -11224,10 +11224,10 @@
         <v>0.39556999999999998</v>
       </c>
       <c r="Q134" t="s">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c r="R134">
-        <v>1.11588</v>
+        <v>0.98038999999999998</v>
       </c>
       <c r="S134" t="s">
         <v>248</v>
@@ -11301,7 +11301,7 @@
         <v>53</v>
       </c>
       <c r="R135">
-        <v>1.0300400000000001</v>
+        <v>0.98038999999999998</v>
       </c>
       <c r="S135" t="s">
         <v>215</v>
@@ -11372,10 +11372,10 @@
         <v>0.39556999999999998</v>
       </c>
       <c r="Q136" t="s">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="R136">
-        <v>1.0300400000000001</v>
+        <v>0.98038999999999998</v>
       </c>
       <c r="S136" t="s">
         <v>135</v>
@@ -11440,10 +11440,10 @@
         <v>0.31646000000000002</v>
       </c>
       <c r="Q137" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="R137">
-        <v>1.0300400000000001</v>
+        <v>0.98038999999999998</v>
       </c>
       <c r="S137" t="s">
         <v>287</v>
@@ -11508,10 +11508,10 @@
         <v>0.31646000000000002</v>
       </c>
       <c r="Q138" t="s">
-        <v>67</v>
+        <v>231</v>
       </c>
       <c r="R138">
-        <v>0.94420999999999999</v>
+        <v>0.98038999999999998</v>
       </c>
       <c r="S138" t="s">
         <v>52</v>
@@ -11576,10 +11576,10 @@
         <v>0.31646000000000002</v>
       </c>
       <c r="Q139" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="R139">
-        <v>0.94420999999999999</v>
+        <v>0.98038999999999998</v>
       </c>
       <c r="S139" t="s">
         <v>99</v>
@@ -11644,10 +11644,10 @@
         <v>0.31646000000000002</v>
       </c>
       <c r="Q140" t="s">
-        <v>292</v>
+        <v>51</v>
       </c>
       <c r="R140">
-        <v>0.94420999999999999</v>
+        <v>0.90498000000000001</v>
       </c>
       <c r="S140" t="s">
         <v>117</v>
@@ -11715,7 +11715,7 @@
         <v>72</v>
       </c>
       <c r="R141">
-        <v>0.94420999999999999</v>
+        <v>0.90498000000000001</v>
       </c>
       <c r="S141" t="s">
         <v>252</v>
@@ -11774,10 +11774,10 @@
         <v>0.31646000000000002</v>
       </c>
       <c r="Q142" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="R142">
-        <v>0.85836999999999997</v>
+        <v>0.90498000000000001</v>
       </c>
       <c r="S142" t="s">
         <v>275</v>
@@ -11836,10 +11836,10 @@
         <v>0.31646000000000002</v>
       </c>
       <c r="Q143" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="R143">
-        <v>0.85836999999999997</v>
+        <v>0.90498000000000001</v>
       </c>
       <c r="S143" t="s">
         <v>156</v>
@@ -11898,10 +11898,10 @@
         <v>0.31646000000000002</v>
       </c>
       <c r="Q144" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="R144">
-        <v>0.85836999999999997</v>
+        <v>0.90498000000000001</v>
       </c>
       <c r="S144" t="s">
         <v>92</v>
@@ -11960,10 +11960,10 @@
         <v>0.23734</v>
       </c>
       <c r="Q145" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="R145">
-        <v>0.85836999999999997</v>
+        <v>0.82955999999999996</v>
       </c>
       <c r="S145" t="s">
         <v>240</v>
@@ -12022,10 +12022,10 @@
         <v>0.23734</v>
       </c>
       <c r="Q146" t="s">
-        <v>51</v>
+        <v>308</v>
       </c>
       <c r="R146">
-        <v>0.85836999999999997</v>
+        <v>0.82955999999999996</v>
       </c>
       <c r="S146" t="s">
         <v>113</v>
@@ -12087,7 +12087,7 @@
         <v>197</v>
       </c>
       <c r="R147">
-        <v>0.85836999999999997</v>
+        <v>0.82955999999999996</v>
       </c>
       <c r="S147" t="s">
         <v>104</v>
@@ -12146,10 +12146,10 @@
         <v>0.23734</v>
       </c>
       <c r="Q148" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="R148">
-        <v>0.85836999999999997</v>
+        <v>0.82955999999999996</v>
       </c>
       <c r="S148" t="s">
         <v>111</v>
@@ -12208,10 +12208,10 @@
         <v>0.23734</v>
       </c>
       <c r="Q149" t="s">
-        <v>88</v>
+        <v>277</v>
       </c>
       <c r="R149">
-        <v>0.85836999999999997</v>
+        <v>0.75414999999999999</v>
       </c>
       <c r="S149" t="s">
         <v>272</v>
@@ -12270,10 +12270,10 @@
         <v>0.23734</v>
       </c>
       <c r="Q150" t="s">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="R150">
-        <v>0.77253000000000005</v>
+        <v>0.75414999999999999</v>
       </c>
       <c r="S150" t="s">
         <v>223</v>
@@ -12335,7 +12335,7 @@
         <v>114</v>
       </c>
       <c r="R151">
-        <v>0.77253000000000005</v>
+        <v>0.67873000000000006</v>
       </c>
       <c r="S151" t="s">
         <v>162</v>
@@ -12394,10 +12394,10 @@
         <v>0.23734</v>
       </c>
       <c r="Q152" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="R152">
-        <v>0.68669999999999998</v>
+        <v>0.67873000000000006</v>
       </c>
       <c r="S152" t="s">
         <v>310</v>
@@ -12450,10 +12450,10 @@
         <v>0.23734</v>
       </c>
       <c r="Q153" t="s">
-        <v>62</v>
+        <v>276</v>
       </c>
       <c r="R153">
-        <v>0.60085999999999995</v>
+        <v>0.67873000000000006</v>
       </c>
       <c r="S153" t="s">
         <v>227</v>
@@ -12506,10 +12506,10 @@
         <v>0.23734</v>
       </c>
       <c r="Q154" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="R154">
-        <v>0.60085999999999995</v>
+        <v>0.60331999999999997</v>
       </c>
       <c r="S154" t="s">
         <v>202</v>
@@ -12565,7 +12565,7 @@
         <v>180</v>
       </c>
       <c r="R155">
-        <v>0.60085999999999995</v>
+        <v>0.60331999999999997</v>
       </c>
       <c r="S155" t="s">
         <v>308</v>
@@ -12618,10 +12618,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q156" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="R156">
-        <v>0.60085999999999995</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="S156" t="s">
         <v>200</v>
@@ -12677,7 +12677,7 @@
         <v>243</v>
       </c>
       <c r="R157">
-        <v>0.60085999999999995</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="S157" t="s">
         <v>306</v>
@@ -12730,10 +12730,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q158" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="R158">
-        <v>0.51502000000000003</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="S158" t="s">
         <v>109</v>
@@ -12786,10 +12786,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q159" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R159">
-        <v>0.42918000000000001</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="S159" t="s">
         <v>311</v>
@@ -12842,10 +12842,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q160" t="s">
-        <v>276</v>
+        <v>86</v>
       </c>
       <c r="R160">
-        <v>0.42918000000000001</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="S160" t="s">
         <v>268</v>
@@ -12892,10 +12892,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q161" t="s">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="R161">
-        <v>0.42918000000000001</v>
+        <v>0.52790000000000004</v>
       </c>
       <c r="S161" t="s">
         <v>312</v>
@@ -12942,10 +12942,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q162" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="R162">
-        <v>0.42918000000000001</v>
+        <v>0.37707000000000002</v>
       </c>
       <c r="S162" t="s">
         <v>228</v>
@@ -12992,10 +12992,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q163" t="s">
-        <v>241</v>
+        <v>58</v>
       </c>
       <c r="R163">
-        <v>0.42918000000000001</v>
+        <v>0.37707000000000002</v>
       </c>
       <c r="S163" t="s">
         <v>115</v>
@@ -13042,10 +13042,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q164" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="R164">
-        <v>0.42918000000000001</v>
+        <v>0.37707000000000002</v>
       </c>
       <c r="S164" t="s">
         <v>75</v>
@@ -13086,10 +13086,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q165" t="s">
-        <v>298</v>
+        <v>125</v>
       </c>
       <c r="R165">
-        <v>0.34334999999999999</v>
+        <v>0.37707000000000002</v>
       </c>
       <c r="S165" t="s">
         <v>188</v>
@@ -13124,10 +13124,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R166">
-        <v>0.34334999999999999</v>
+        <v>0.37707000000000002</v>
       </c>
       <c r="S166" t="s">
         <v>313</v>
@@ -13165,7 +13165,7 @@
         <v>236</v>
       </c>
       <c r="R167">
-        <v>0.34334999999999999</v>
+        <v>0.30165999999999998</v>
       </c>
       <c r="S167" t="s">
         <v>305</v>
@@ -13200,10 +13200,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q168" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="R168">
-        <v>0.34334999999999999</v>
+        <v>0.30165999999999998</v>
       </c>
       <c r="S168" t="s">
         <v>134</v>
@@ -13241,7 +13241,7 @@
         <v>94</v>
       </c>
       <c r="R169">
-        <v>0.34334999999999999</v>
+        <v>0.30165999999999998</v>
       </c>
       <c r="S169" t="s">
         <v>289</v>
@@ -13279,7 +13279,7 @@
         <v>244</v>
       </c>
       <c r="R170">
-        <v>0.34334999999999999</v>
+        <v>0.30165999999999998</v>
       </c>
       <c r="S170" t="s">
         <v>231</v>
@@ -13314,10 +13314,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q171" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="R171">
-        <v>0.25751000000000002</v>
+        <v>0.30165999999999998</v>
       </c>
       <c r="S171" t="s">
         <v>210</v>
@@ -13352,10 +13352,10 @@
         <v>0.15823000000000001</v>
       </c>
       <c r="Q172" t="s">
-        <v>301</v>
+        <v>84</v>
       </c>
       <c r="R172">
-        <v>0.25751000000000002</v>
+        <v>0.22624</v>
       </c>
       <c r="S172" t="s">
         <v>141</v>
@@ -13390,10 +13390,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q173" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="R173">
-        <v>0.25751000000000002</v>
+        <v>0.22624</v>
       </c>
       <c r="S173" t="s">
         <v>304</v>
@@ -13431,7 +13431,7 @@
         <v>232</v>
       </c>
       <c r="R174">
-        <v>0.25751000000000002</v>
+        <v>0.22624</v>
       </c>
       <c r="S174" t="s">
         <v>314</v>
@@ -13463,7 +13463,7 @@
         <v>278</v>
       </c>
       <c r="R175">
-        <v>0.25751000000000002</v>
+        <v>0.22624</v>
       </c>
       <c r="S175" t="s">
         <v>163</v>
@@ -13492,10 +13492,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q176" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="R176">
-        <v>0.17166999999999999</v>
+        <v>0.22624</v>
       </c>
       <c r="S176" t="s">
         <v>298</v>
@@ -13524,10 +13524,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q177" t="s">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="R177">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S177" t="s">
         <v>292</v>
@@ -13559,7 +13559,7 @@
         <v>222</v>
       </c>
       <c r="R178">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S178" t="s">
         <v>126</v>
@@ -13588,10 +13588,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q179" t="s">
-        <v>255</v>
+        <v>117</v>
       </c>
       <c r="R179">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S179" t="s">
         <v>120</v>
@@ -13620,10 +13620,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q180" t="s">
-        <v>305</v>
+        <v>255</v>
       </c>
       <c r="R180">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S180" t="s">
         <v>151</v>
@@ -13652,10 +13652,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q181" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="R181">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S181" t="s">
         <v>236</v>
@@ -13687,7 +13687,7 @@
         <v>135</v>
       </c>
       <c r="R182">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S182" t="s">
         <v>203</v>
@@ -13716,10 +13716,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q183" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="R183">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S183" t="s">
         <v>216</v>
@@ -13748,10 +13748,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q184" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="R184">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S184" t="s">
         <v>185</v>
@@ -13780,10 +13780,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q185" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="R185">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S185" t="s">
         <v>315</v>
@@ -13812,10 +13812,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q186" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="R186">
-        <v>0.17166999999999999</v>
+        <v>0.15082999999999999</v>
       </c>
       <c r="S186" t="s">
         <v>273</v>
@@ -13844,10 +13844,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q187" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="R187">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S187" t="s">
         <v>191</v>
@@ -13876,10 +13876,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q188" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="R188">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S188" t="s">
         <v>244</v>
@@ -13908,10 +13908,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q189" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="R189">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S189" t="s">
         <v>284</v>
@@ -13940,10 +13940,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q190" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="R190">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S190" t="s">
         <v>233</v>
@@ -13972,10 +13972,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q191" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="R191">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S191" t="s">
         <v>213</v>
@@ -14004,10 +14004,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q192" t="s">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="R192">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S192" t="s">
         <v>171</v>
@@ -14036,10 +14036,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q193" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="R193">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S193" t="s">
         <v>222</v>
@@ -14068,10 +14068,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q194" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="R194">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S194" t="s">
         <v>316</v>
@@ -14100,10 +14100,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q195" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="R195">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S195" t="s">
         <v>286</v>
@@ -14132,10 +14132,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q196" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="R196">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S196" t="s">
         <v>317</v>
@@ -14164,10 +14164,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q197" t="s">
-        <v>303</v>
+        <v>235</v>
       </c>
       <c r="R197">
-        <v>8.584E-2</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S197" t="s">
         <v>318</v>
@@ -14196,10 +14196,10 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q198" t="s">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="R198">
-        <v>0</v>
+        <v>7.5410000000000005E-2</v>
       </c>
       <c r="S198" t="s">
         <v>209</v>
@@ -14228,7 +14228,7 @@
         <v>7.911E-2</v>
       </c>
       <c r="Q199" t="s">
-        <v>246</v>
+        <v>153</v>
       </c>
       <c r="R199">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="Q200" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="R200">
         <v>0</v>
@@ -14292,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="Q201" t="s">
-        <v>104</v>
+        <v>246</v>
       </c>
       <c r="R201">
         <v>0</v>
@@ -14321,6 +14321,12 @@
         <v>53</v>
       </c>
       <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>104</v>
+      </c>
+      <c r="R202">
         <v>0</v>
       </c>
       <c r="S202" t="s">
